--- a/クラウドデザインパターン和訳.xlsx
+++ b/クラウドデザインパターン和訳.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13065" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="目次写経" sheetId="2" r:id="rId1"/>
@@ -1824,6 +1824,97 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11249025" y="790575"/>
+          <a:ext cx="2447925" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>赤字：アプリパタンとして取り込めそう</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>青字：基盤メインっぽい</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>黒字：なんともいえない</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>未調査込</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2606,7 +2697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C98"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -2984,6 +3075,7 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2991,8 +3083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AX297"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="C227" sqref="C227"/>
+    <sheetView showGridLines="0" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="D227" sqref="D227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
